--- a/io_maping/DS4 connection.xlsx
+++ b/io_maping/DS4 connection.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20235" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K49"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/io_maping/DS4 connection.xlsx
+++ b/io_maping/DS4 connection.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="220">
   <si>
     <t>name</t>
   </si>
@@ -643,6 +643,48 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>horn_out</t>
+  </si>
+  <si>
+    <t>aux_1_neg</t>
+  </si>
+  <si>
+    <t>aux_1_pos</t>
+  </si>
+  <si>
+    <t>aux_4_out</t>
+  </si>
+  <si>
+    <t>ignition_out</t>
+  </si>
+  <si>
+    <t>ds4_led_red</t>
+  </si>
+  <si>
+    <t>ds4_led_green</t>
+  </si>
+  <si>
+    <t>ds4_led_blue</t>
+  </si>
+  <si>
+    <t>DS4 LED Red</t>
+  </si>
+  <si>
+    <t>DS4 LED Green</t>
+  </si>
+  <si>
+    <t>DS4 LED Blue</t>
+  </si>
+  <si>
+    <t>pink to Green/White</t>
+  </si>
+  <si>
+    <t>green to Green/Black</t>
+  </si>
+  <si>
+    <t>blue to White/Purple</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1548,7 @@
         <v>205</v>
       </c>
       <c r="J3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>171</v>
@@ -1541,7 +1583,7 @@
         <v>205</v>
       </c>
       <c r="J4" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>173</v>
@@ -1576,7 +1618,7 @@
         <v>205</v>
       </c>
       <c r="J5" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>174</v>
@@ -1611,7 +1653,7 @@
         <v>205</v>
       </c>
       <c r="J6" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>185</v>
@@ -1644,10 +1686,10 @@
         <v>205</v>
       </c>
       <c r="J7" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1679,10 +1721,10 @@
         <v>205</v>
       </c>
       <c r="J8" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,10 +1756,10 @@
         <v>201</v>
       </c>
       <c r="J9" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1749,10 +1791,10 @@
         <v>201</v>
       </c>
       <c r="J10" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1784,7 +1826,7 @@
         <v>205</v>
       </c>
       <c r="J11" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>176</v>
@@ -1819,7 +1861,7 @@
         <v>205</v>
       </c>
       <c r="J12" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>172</v>
@@ -1854,7 +1896,7 @@
         <v>201</v>
       </c>
       <c r="J13" s="23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>177</v>
@@ -1889,7 +1931,7 @@
         <v>201</v>
       </c>
       <c r="J14" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>178</v>
@@ -1924,7 +1966,7 @@
         <v>201</v>
       </c>
       <c r="J15" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>193</v>
@@ -1959,7 +2001,7 @@
         <v>201</v>
       </c>
       <c r="J16" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>180</v>
@@ -1994,7 +2036,7 @@
         <v>201</v>
       </c>
       <c r="J17" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>190</v>
@@ -2029,7 +2071,7 @@
         <v>201</v>
       </c>
       <c r="J18" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>192</v>
@@ -2064,7 +2106,7 @@
         <v>201</v>
       </c>
       <c r="J19" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="27" t="s">
         <v>191</v>
@@ -2099,7 +2141,7 @@
         <v>201</v>
       </c>
       <c r="J20" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>181</v>
@@ -2134,7 +2176,7 @@
         <v>201</v>
       </c>
       <c r="J21" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>175</v>
@@ -2169,7 +2211,7 @@
         <v>201</v>
       </c>
       <c r="J22" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>179</v>
@@ -2204,7 +2246,7 @@
         <v>201</v>
       </c>
       <c r="J23" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>182</v>
@@ -2259,7 +2301,6 @@
       <c r="I25" s="32"/>
       <c r="J25" s="24"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
@@ -2289,7 +2330,6 @@
       <c r="I26" s="33"/>
       <c r="J26" s="23"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
@@ -2318,14 +2358,15 @@
       <c r="H27" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J27" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
@@ -2353,7 +2394,6 @@
       <c r="I28" s="32"/>
       <c r="J28" s="24"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
@@ -2382,14 +2422,15 @@
       <c r="H29" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="33"/>
+      <c r="I29" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J29" s="23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
@@ -2417,7 +2458,6 @@
       <c r="I30" s="32"/>
       <c r="J30" s="24"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
@@ -2473,9 +2513,11 @@
       <c r="H32" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J32" s="23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>196</v>
@@ -2556,9 +2598,11 @@
       <c r="H35" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="33"/>
+      <c r="I35" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J35" s="23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>195</v>
@@ -2691,9 +2735,11 @@
       <c r="H40" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J40" s="23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K40" s="27" t="s">
         <v>197</v>
@@ -2753,9 +2799,11 @@
       <c r="H42" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J42" s="23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" s="27" t="s">
         <v>198</v>
@@ -2786,9 +2834,11 @@
       <c r="H43" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I43" s="33"/>
+      <c r="I43" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J43" s="23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="27" t="s">
         <v>184</v>
@@ -2819,9 +2869,11 @@
       <c r="H44" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J44" s="23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="27" t="s">
         <v>183</v>
@@ -2881,58 +2933,114 @@
       <c r="H46" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="I46" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="J46" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C47" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="29"/>
+      <c r="D47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J47" s="23">
+        <v>25</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C48" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="29"/>
+      <c r="D48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J48" s="23">
+        <v>24</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C49" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="30"/>
+      <c r="D49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="26">
+        <v>26</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:F10">
